--- a/main/Scrapify - Copy.xlsx
+++ b/main/Scrapify - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicaja\Desktop\DB\DB-Bussiness\2019.01.01_SmartCodeACADEMY_Official\2026.31.01_GitHub_PRJ_Scrapify\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB9B6F-953D-41EA-96DB-1511A765CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{465B35F8-D75D-4054-A1DF-CA4D85A04ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -1353,22 +1354,22 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1674,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1686,8 +1687,8 @@
     <col min="4" max="4" width="65.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="135.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
-    <col min="7" max="13" width="9.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="15" width="9.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2322,10 +2323,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2337,11 +2338,11 @@
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2485,27 +2486,99 @@
     <row r="94" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2523,10 +2596,10 @@
     <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2546,14 +2619,38 @@
     <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2589,47 +2686,48 @@
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -2659,62 +2757,66 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="268" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -2722,425 +2824,425 @@
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="B274" s="4"/>
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4"/>
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="B278" s="4"/>
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="B280" s="4"/>
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="B282" s="4"/>
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="B284" s="4"/>
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="B286" s="4"/>
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
-      <c r="B288" s="4"/>
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
-      <c r="B296" s="4"/>
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
-      <c r="B298" s="4"/>
+      <c r="A298" s="5"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
-      <c r="B300" s="4"/>
+      <c r="A300" s="5"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
-      <c r="B302" s="4"/>
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
-      <c r="B304" s="4"/>
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
-      <c r="B308" s="4"/>
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="B310" s="4"/>
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
-      <c r="B318" s="4"/>
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="4"/>
-      <c r="B324" s="4"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
-      <c r="B326" s="4"/>
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
-      <c r="B328" s="4"/>
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
-      <c r="B330" s="4"/>
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
+      <c r="A334" s="5"/>
+      <c r="B334" s="5"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="A335" s="5"/>
+      <c r="B335" s="5"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
+      <c r="A336" s="5"/>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
-      <c r="B338" s="4"/>
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
-      <c r="B340" s="4"/>
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
-      <c r="B344" s="4"/>
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
-      <c r="B346" s="4"/>
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
+      <c r="A349" s="5"/>
+      <c r="B349" s="5"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="4"/>
-      <c r="B351" s="4"/>
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
-      <c r="B352" s="4"/>
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
-      <c r="B353" s="4"/>
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
-      <c r="B354" s="4"/>
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
-      <c r="B355" s="4"/>
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
-      <c r="B356" s="4"/>
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="4"/>
-      <c r="B357" s="4"/>
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
-      <c r="B358" s="4"/>
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
-      <c r="B359" s="4"/>
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
-      <c r="B360" s="4"/>
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
-      <c r="B361" s="4"/>
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="4"/>
-      <c r="B362" s="4"/>
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="4"/>
-      <c r="B363" s="4"/>
+      <c r="A363" s="5"/>
+      <c r="B363" s="5"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
-      <c r="B364" s="4"/>
+      <c r="A364" s="5"/>
+      <c r="B364" s="5"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="4"/>
-      <c r="B365" s="4"/>
+      <c r="A365" s="5"/>
+      <c r="B365" s="5"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
-      <c r="B366" s="4"/>
+      <c r="A366" s="5"/>
+      <c r="B366" s="5"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
+      <c r="A367" s="5"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="4"/>
-      <c r="B368" s="4"/>
+      <c r="A368" s="5"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="4"/>
-      <c r="B369" s="4"/>
+      <c r="A369" s="5"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="4"/>
-      <c r="B370" s="4"/>
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="4"/>
-      <c r="B371" s="4"/>
+      <c r="A371" s="5"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
-      <c r="B372" s="4"/>
+      <c r="A372" s="5"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
+      <c r="A373" s="5"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
+      <c r="A374" s="5"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
+      <c r="A375" s="5"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="B376" s="4"/>
-      <c r="C376" s="5"/>
+      <c r="A376" s="5"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="6"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:E1048576">

--- a/main/Scrapify - Copy.xlsx
+++ b/main/Scrapify - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicaja\Desktop\DB\DB-Bussiness\2019.01.01_SmartCodeACADEMY_Official\2026.31.01_GitHub_PRJ_Scrapify\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465B35F8-D75D-4054-A1DF-CA4D85A04ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC320D-09E3-4EF0-8F0E-A350B6632DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -1290,6 +1289,1428 @@
 Due to visa sponsorship limitations, we can only consider candidates who are legally authorized to work in the U.S. at the time of application
 RIVR is committed to building a diverse and inclusive team that values every perspective. If you’re passionate about driving innovation in robotics and creating meaningful impact, we encourage you to apply and bring your unique self to our team.
 We believe the best work is done when collaborating and therefore require in-person presence in our office locations.</t>
+  </si>
+  <si>
+    <t>Talent Acquisition Partner - My Framer Site
+Talent Acquisition Partner
+Switzerland
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a Talent Acquisition Partner to own and scale our technical hiring engine. You will work closely with the founders and leadership to define role profiles, build high-caliber pipelines for niche robotics and engineering roles, and design and execute the recruiting processes that will support our next stages of growth. This is a highly crucial, hands-on role with real influence over how we build our team and culture.
+Key Responsibilities
+Own and execute end-to-end recruitment for technical roles (e.g., core robotics engineering, control and motion systems, perception and sensing, and applied machine learning, among many more).
+Proactively source candidates through multiple channels (direct outreach, referrals, events, online platforms, and networks) and keep a steady flow of high-quality talent entering the pipeline.
+Conduct initial screening calls and interviews to assess skills, experience, and fit, and ensure the movement of candidates efficiently through each stage of the process.
+Coordinate and schedule interviews with hiring managers and panels, ensuring a smooth and timely process for both candidates and internal teams.
+Maintain clear, consistent communication with candidates throughout the funnel.
+Own offer processes end-to-end: prepare and present offers, handle negotiations, and close candidates.
+Keep the ATS and all recruiting tools up to date, ensuring accurate tracking of candidates, stages, and feedback.
+Work closely with HR/People operations to ensure a smooth handover from signed offer to onboarding, making sure no candidate âdropsâ in the transition.
+Support hiring across different locations and markets, including helping build new hubs (e.g., US), by actively sourcing and running local processes.
+Prepare basic reports on pipeline health, time-to-hire, and process bottlenecks to keep stakeholders informed and aligned.
+Requirements
+At least 3 years of experience in technical recruiting, with a strong focus on engineering, ML/AI, robotics, or other deepâtech roles.
+Proven track record hiring hardâtoâfill, highly specialized technical profiles.
+Excellent English communication skills (spoken and written), able to communicate credibly with senior engineers and researchers.
+Demonstrated success with proactive sourcing (not just inbound), including candidates from top universities, research labs, and highâbar companies.
+Hands-on experience running endâtoâend hiring processes independently: from intake and profile definition through to offer, negotiation, and closing.
+Ability to quickly understand and articulate complex technical problem spaces well enough to qualify candidates and build trust.
+Comfortable working in an earlyâstage, fastâmoving environment with evolving structures and priorities.
+High ownership and execution mindset: you prioritize effectively, move searches forward without micromanagement, and handle handsâon tasks like sourcing, scheduling, and followâups.
+High integrity and discretion when handling sensitive candidate and compensation information.
+Strong stakeholder management skills and experience partnering with founders and senior leadership.
+Bonus points from:
+Direct experience hiring for robotics.
+Experience working in earlyâstage startups or highâgrowth environments with limited existing process.
+Previous experience with Workable or a similar ATS.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Significant ownership over how we build our hiring engine and technical talent brand
+Close collaboration with world-class robotics, ML, and software engineers, and direct influence on the composition of the core team
+Talent Acquisition Partner
+Switzerland
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a Talent Acquisition Partner to own and scale our technical hiring engine. You will work closely with the founders and leadership to define role profiles, build high-caliber pipelines for niche robotics and engineering roles, and design and execute the recruiting processes that will support our next stages of growth. This is a highly crucial, hands-on role with real influence over how we build our team and culture.
+Key Responsibilities
+Own and execute end-to-end recruitment for technical roles (e.g., core robotics engineering, control and motion systems, perception and sensing, and applied machine learning, among many more).
+Proactively source candidates through multiple channels (direct outreach, referrals, events, online platforms, and networks) and keep a steady flow of high-quality talent entering the pipeline.
+Conduct initial screening calls and interviews to assess skills, experience, and fit, and ensure the movement of candidates efficiently through each stage of the process.
+Coordinate and schedule interviews with hiring managers and panels, ensuring a smooth and timely process for both candidates and internal teams.
+Maintain clear, consistent communication with candidates throughout the funnel.
+Own offer processes end-to-end: prepare and present offers, handle negotiations, and close candidates.
+Keep the ATS and all recruiting tools up to date, ensuring accurate tracking of candidates, stages, and feedback.
+Work closely with HR/People operations to ensure a smooth handover from signed offer to onboarding, making sure no candidate âdropsâ in the transition.
+Support hiring across different locations and markets, including helping build new hubs (e.g., US), by actively sourcing and running local processes.
+Prepare basic reports on pipeline health, time-to-hire, and process bottlenecks to keep stakeholders informed and aligned.
+Requirements
+At least 3 years of experience in technical recruiting, with a strong focus on engineering, ML/AI, robotics, or other deepâtech roles.
+Proven track record hiring hardâtoâfill, highly specialized technical profiles.
+Excellent English communication skills (spoken and written), able to communicate credibly with senior engineers and researchers.
+Demonstrated success with proactive sourcing (not just inbound), including candidates from top universities, research labs, and highâbar companies.
+Hands-on experience running endâtoâend hiring processes independently: from intake and profile definition through to offer, negotiation, and closing.
+Ability to quickly understand and articulate complex technical problem spaces well enough to qualify candidates and build trust.
+Comfortable working in an earlyâstage, fastâmoving environment with evolving structures and priorities.
+High ownership and execution mindset: you prioritize effectively, move searches forward without micromanagement, and handle handsâon tasks like sourcing, scheduling, and followâups.
+High integrity and discretion when handling sensitive candidate and compensation information.
+Strong stakeholder management skills and experience partnering with founders and senior leadership.
+Bonus points from:
+Direct experience hiring for robotics.
+Experience working in earlyâstage startups or highâgrowth environments with limited existing process.
+Previous experience with Workable or a similar ATS.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Significant ownership over how we build our hiring engine and technical talent brand
+Close collaboration with world-class robotics, ML, and software engineers, and direct influence on the composition of the core team
+Talent Acquisition Partner
+Switzerland
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a Talent Acquisition Partner to own and scale our technical hiring engine. You will work closely with the founders and leadership to define role profiles, build high-caliber pipelines for niche robotics and engineering roles, and design and execute the recruiting processes that will support our next stages of growth. This is a highly crucial, hands-on role with real influence over how we build our team and culture.
+Key Responsibilities
+Own and execute end-to-end recruitment for technical roles (e.g., core robotics engineering, control and motion systems, perception and sensing, and applied machine learning, among many more).
+Proactively source candidates through multiple channels (direct outreach, referrals, events, online platforms, and networks) and keep a steady flow of high-quality talent entering the pipeline.
+Conduct initial screening calls and interviews to assess skills, experience, and fit, and ensure the movement of candidates efficiently through each stage of the process.
+Coordinate and schedule interviews with hiring managers and panels, ensuring a smooth and timely process for both candidates and internal teams.
+Maintain clear, consistent communication with candidates throughout the funnel.
+Own offer processes end-to-end: prepare and present offers, handle negotiations, and close candidates.
+Keep the ATS and all recruiting tools up to date, ensuring accurate tracking of candidates, stages, and feedback.
+Work closely with HR/People operations to ensure a smooth handover from signed offer to onboarding, making sure no candidate âdropsâ in the transition.
+Support hiring across different locations and markets, including helping build new hubs (e.g., US), by actively sourcing and running local processes.
+Prepare basic reports on pipeline health, time-to-hire, and process bottlenecks to keep stakeholders informed and aligned.
+Requirements
+At least 3 years of experience in technical recruiting, with a strong focus on engineering, ML/AI, robotics, or other deepâtech roles.
+Proven track record hiring hardâtoâfill, highly specialized technical profiles.
+Excellent English communication skills (spoken and written), able to communicate credibly with senior engineers and researchers.
+Demonstrated success with proactive sourcing (not just inbound), including candidates from top universities, research labs, and highâbar companies.
+Hands-on experience running endâtoâend hiring processes independently: from intake and profile definition through to offer, negotiation, and closing.
+Ability to quickly understand and articulate complex technical problem spaces well enough to qualify candidates and build trust.
+Comfortable working in an earlyâstage, fastâmoving environment with evolving structures and priorities.
+High ownership and execution mindset: you prioritize effectively, move searches forward without micromanagement, and handle handsâon tasks like sourcing, scheduling, and followâups.
+High integrity and discretion when handling sensitive candidate and compensation information.
+Strong stakeholder management skills and experience partnering with founders and senior leadership.
+Bonus points from:
+Direct experience hiring for robotics.
+Experience working in earlyâstage startups or highâgrowth environments with limited existing process.
+Previous experience with Workable or a similar ATS.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Significant ownership over how we build our hiring engine and technical talent brand
+Close collaboration with world-class robotics, ML, and software engineers, and direct influence on the composition of the core team
+Talent Acquisition Partner
+Switzerland
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a Talent Acquisition Partner to own and scale our technical hiring engine. You will work closely with the founders and leadership to define role profiles, build high-caliber pipelines for niche robotics and engineering roles, and design and execute the recruiting processes that will support our next stages of growth. This is a highly crucial, hands-on role with real influence over how we build our team and culture.
+Key Responsibilities
+Own and execute end-to-end recruitment for technical roles (e.g., core robotics engineering, control and motion systems, perception and sensing, and applied machine learning, among many more).
+Proactively source candidates through multiple channels (direct outreach, referrals, events, online platforms, and networks) and keep a steady flow of high-quality talent entering the pipeline.
+Conduct initial screening calls and interviews to assess skills, experience, and fit, and ensure the movement of candidates efficiently through each stage of the process.
+Coordinate and schedule interviews with hiring managers and panels, ensuring a smooth and timely process for both candidates and internal teams.
+Maintain clear, consistent communication with candidates throughout the funnel.
+Own offer processes end-to-end: prepare and present offers, handle negotiations, and close candidates.
+Keep the ATS and all recruiting tools up to date, ensuring accurate tracking of candidates, stages, and feedback.
+Work closely with HR/People operations to ensure a smooth handover from signed offer to onboarding, making sure no candidate âdropsâ in the transition.
+Support hiring across different locations and markets, including helping build new hubs (e.g., US), by actively sourcing and running local processes.
+Prepare basic reports on pipeline health, time-to-hire, and process bottlenecks to keep stakeholders informed and aligned.
+Requirements
+At least 3 years of experience in technical recruiting, with a strong focus on engineering, ML/AI, robotics, or other deepâtech roles.
+Proven track record hiring hardâtoâfill, highly specialized technical profiles.
+Excellent English communication skills (spoken and written), able to communicate credibly with senior engineers and researchers.
+Demonstrated success with proactive sourcing (not just inbound), including candidates from top universities, research labs, and highâbar companies.
+Hands-on experience running endâtoâend hiring processes independently: from intake and profile definition through to offer, negotiation, and closing.
+Ability to quickly understand and articulate complex technical problem spaces well enough to qualify candidates and build trust.
+Comfortable working in an earlyâstage, fastâmoving environment with evolving structures and priorities.
+High ownership and execution mindset: you prioritize effectively, move searches forward without micromanagement, and handle handsâon tasks like sourcing, scheduling, and followâups.
+High integrity and discretion when handling sensitive candidate and compensation information.
+Strong stakeholder management skills and experience partnering with founders and senior leadership.
+Bonus points from:
+Direct experience hiring for robotics.
+Experience working in earlyâstage startups or highâgrowth environments with limited existing process.
+Previous experience with Workable or a similar ATS.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Significant ownership over how we build our hiring engine and technical talent brand
+Close collaboration with world-class robotics, ML, and software engineers, and direct influence on the composition of the core team
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Talent Acquisition Partner</t>
+  </si>
+  <si>
+    <t>Flexion Robotics</t>
+  </si>
+  <si>
+    <t>16:17:44</t>
+  </si>
+  <si>
+    <t>Internship - Finance &amp; Operations - My Framer Site
+Internship - Finance &amp; Operations
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for a Finance &amp; Operations Intern to join our operations team and support the companyâs day-to-day financial activities. This role is ideal for a student or recent graduate seeking hands-on experience in finance, accounting, and operations within a high-growth robotics startup. Minimum duration of 6 months, with the possibility of transitioning into a full-time role based on performance and company needs.
+Key Responsibilities:
+Support accounts payable, invoice processing, approvals, and coordination with external accountants
+Assist with bookkeeping, monthly close preparation, and audit-ready documentation
+Administer expense management and support bank and credit card reconciliations
+Assist with financial reporting, dashboards, budgeting, forecasting, and basic analysis
+Support invoicing, order management, and revenue tracking
+Contribute to process improvements, automation, and ERP systems (e.g. Odoo)
+Support fundraising, due diligence, and general financial and operational tasks as needed
+Requirements
+Currently pursuing or recently completed a degree in finance, accounting, business administration, economics, or a related field
+Strong interest in startups
+Solid organizational skills and strong attention to detail
+Comfortable working with spreadsheets and financial data
+Familiarity with financial modeling
+Proactive, reliable, and eager to learn in a fast-paced environment
+Strong written and verbal communication skills in English, German is a plus
+Interest in deep tech, AI, or robotics is a plus
+Experience with Odoo, and knowledge of GAAP &amp; IFRS is a plus
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Hands-on exposure to startup finance, accounting and operations, with ownership and learning opportunities in a fast-moving deep-tech environment
+Internship - Finance &amp; Operations
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for a Finance &amp; Operations Intern to join our operations team and support the companyâs day-to-day financial activities. This role is ideal for a student or recent graduate seeking hands-on experience in finance, accounting, and operations within a high-growth robotics startup. Minimum duration of 6 months, with the possibility of transitioning into a full-time role based on performance and company needs.
+Key Responsibilities:
+Support accounts payable, invoice processing, approvals, and coordination with external accountants
+Assist with bookkeeping, monthly close preparation, and audit-ready documentation
+Administer expense management and support bank and credit card reconciliations
+Assist with financial reporting, dashboards, budgeting, forecasting, and basic analysis
+Support invoicing, order management, and revenue tracking
+Contribute to process improvements, automation, and ERP systems (e.g. Odoo)
+Support fundraising, due diligence, and general financial and operational tasks as needed
+Requirements
+Currently pursuing or recently completed a degree in finance, accounting, business administration, economics, or a related field
+Strong interest in startups
+Solid organizational skills and strong attention to detail
+Comfortable working with spreadsheets and financial data
+Familiarity with financial modeling
+Proactive, reliable, and eager to learn in a fast-paced environment
+Strong written and verbal communication skills in English, German is a plus
+Interest in deep tech, AI, or robotics is a plus
+Experience with Odoo, and knowledge of GAAP &amp; IFRS is a plus
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Hands-on exposure to startup finance, accounting and operations, with ownership and learning opportunities in a fast-moving deep-tech environment
+Internship - Finance &amp; Operations
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for a Finance &amp; Operations Intern to join our operations team and support the companyâs day-to-day financial activities. This role is ideal for a student or recent graduate seeking hands-on experience in finance, accounting, and operations within a high-growth robotics startup. Minimum duration of 6 months, with the possibility of transitioning into a full-time role based on performance and company needs.
+Key Responsibilities:
+Support accounts payable, invoice processing, approvals, and coordination with external accountants
+Assist with bookkeeping, monthly close preparation, and audit-ready documentation
+Administer expense management and support bank and credit card reconciliations
+Assist with financial reporting, dashboards, budgeting, forecasting, and basic analysis
+Support invoicing, order management, and revenue tracking
+Contribute to process improvements, automation, and ERP systems (e.g. Odoo)
+Support fundraising, due diligence, and general financial and operational tasks as needed
+Requirements
+Currently pursuing or recently completed a degree in finance, accounting, business administration, economics, or a related field
+Strong interest in startups
+Solid organizational skills and strong attention to detail
+Comfortable working with spreadsheets and financial data
+Familiarity with financial modeling
+Proactive, reliable, and eager to learn in a fast-paced environment
+Strong written and verbal communication skills in English, German is a plus
+Interest in deep tech, AI, or robotics is a plus
+Experience with Odoo, and knowledge of GAAP &amp; IFRS is a plus
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Hands-on exposure to startup finance, accounting and operations, with ownership and learning opportunities in a fast-moving deep-tech environment
+Internship - Finance &amp; Operations
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for a Finance &amp; Operations Intern to join our operations team and support the companyâs day-to-day financial activities. This role is ideal for a student or recent graduate seeking hands-on experience in finance, accounting, and operations within a high-growth robotics startup. Minimum duration of 6 months, with the possibility of transitioning into a full-time role based on performance and company needs.
+Key Responsibilities:
+Support accounts payable, invoice processing, approvals, and coordination with external accountants
+Assist with bookkeeping, monthly close preparation, and audit-ready documentation
+Administer expense management and support bank and credit card reconciliations
+Assist with financial reporting, dashboards, budgeting, forecasting, and basic analysis
+Support invoicing, order management, and revenue tracking
+Contribute to process improvements, automation, and ERP systems (e.g. Odoo)
+Support fundraising, due diligence, and general financial and operational tasks as needed
+Requirements
+Currently pursuing or recently completed a degree in finance, accounting, business administration, economics, or a related field
+Strong interest in startups
+Solid organizational skills and strong attention to detail
+Comfortable working with spreadsheets and financial data
+Familiarity with financial modeling
+Proactive, reliable, and eager to learn in a fast-paced environment
+Strong written and verbal communication skills in English, German is a plus
+Interest in deep tech, AI, or robotics is a plus
+Experience with Odoo, and knowledge of GAAP &amp; IFRS is a plus
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Hands-on exposure to startup finance, accounting and operations, with ownership and learning opportunities in a fast-moving deep-tech environment
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Internship - Finance &amp; Operations</t>
+  </si>
+  <si>
+    <t>Software Engineer - Robotics - My Framer Site
+Software Engineering
+Software Engineer - Robotics
+Switzerland
+Software Engineering
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+Weâre looking for a talented and highly motivated robotics software engineer to join our team in ZÃ¼rich. In this role, you will work closely with our customers, AI engineering team, testing team and the rest of the company to drive successful deployments of our groundbreaking humanoid autonomy stack. You will have ownership of the integration, validation and deployment of our AI systems with novel, state-of-the-art humanoid hardware. At the same time, you will contribute to our core platforms and tooling for deployment and testing to enable scalable customer growth. This is a unique opportunity to join our world-class team of engineers and scientists and to build many aspects of our foundational software from the ground up.
+Requirements
+Required qualifications
+Degree in Computer Science, Electrical Engineering, Robotics, Mechanical Engineering, Software Engineering or equivalent practical experience
+Proficiency in C++ and experience with Python
+Experience in test automation (unit/integration/end-to-end)
+Familiarity with common debugging, profiling and Linux tools
+Familiarity with containerization tools (Docker)
+Basic knowledge of networking and communication protocols
+Familiarity with Git/GitHub, code reviews, and collaborative workflows
+Strong analytical thinking and problem-solving skills
+Additionally, the following skills are a plus:
+Experience with DevOps practices, CI/CD workflows and release management
+Experience with hardware-in-the-loop (HIL) and/or simulation-in-the-loop (SIL) testing
+Hands-on debugging on real hardware: sensor/actuator integration, logs/telemetry, root cause analysis
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+High ownership and autonomy in shaping Flexionâs customer experience
+Software Engineering
+Software Engineer - Robotics
+Switzerland
+Software Engineering
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+Weâre looking for a talented and highly motivated robotics software engineer to join our team in ZÃ¼rich. In this role, you will work closely with our customers, AI engineering team, testing team and the rest of the company to drive successful deployments of our groundbreaking humanoid autonomy stack. You will have ownership of the integration, validation and deployment of our AI systems with novel, state-of-the-art humanoid hardware. At the same time, you will contribute to our core platforms and tooling for deployment and testing to enable scalable customer growth. This is a unique opportunity to join our world-class team of engineers and scientists and to build many aspects of our foundational software from the ground up.
+Requirements
+Required qualifications
+Degree in Computer Science, Electrical Engineering, Robotics, Mechanical Engineering, Software Engineering or equivalent practical experience
+Proficiency in C++ and experience with Python
+Experience in test automation (unit/integration/end-to-end)
+Familiarity with common debugging, profiling and Linux tools
+Familiarity with containerization tools (Docker)
+Basic knowledge of networking and communication protocols
+Familiarity with Git/GitHub, code reviews, and collaborative workflows
+Strong analytical thinking and problem-solving skills
+Additionally, the following skills are a plus:
+Experience with DevOps practices, CI/CD workflows and release management
+Experience with hardware-in-the-loop (HIL) and/or simulation-in-the-loop (SIL) testing
+Hands-on debugging on real hardware: sensor/actuator integration, logs/telemetry, root cause analysis
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+High ownership and autonomy in shaping Flexionâs customer experience
+Software Engineering
+Software Engineer - Robotics
+Switzerland
+Software Engineering
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+Weâre looking for a talented and highly motivated robotics software engineer to join our team in ZÃ¼rich. In this role, you will work closely with our customers, AI engineering team, testing team and the rest of the company to drive successful deployments of our groundbreaking humanoid autonomy stack. You will have ownership of the integration, validation and deployment of our AI systems with novel, state-of-the-art humanoid hardware. At the same time, you will contribute to our core platforms and tooling for deployment and testing to enable scalable customer growth. This is a unique opportunity to join our world-class team of engineers and scientists and to build many aspects of our foundational software from the ground up.
+Requirements
+Required qualifications
+Degree in Computer Science, Electrical Engineering, Robotics, Mechanical Engineering, Software Engineering or equivalent practical experience
+Proficiency in C++ and experience with Python
+Experience in test automation (unit/integration/end-to-end)
+Familiarity with common debugging, profiling and Linux tools
+Familiarity with containerization tools (Docker)
+Basic knowledge of networking and communication protocols
+Familiarity with Git/GitHub, code reviews, and collaborative workflows
+Strong analytical thinking and problem-solving skills
+Additionally, the following skills are a plus:
+Experience with DevOps practices, CI/CD workflows and release management
+Experience with hardware-in-the-loop (HIL) and/or simulation-in-the-loop (SIL) testing
+Hands-on debugging on real hardware: sensor/actuator integration, logs/telemetry, root cause analysis
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+High ownership and autonomy in shaping Flexionâs customer experience
+Software Engineering
+Software Engineer - Robotics
+Switzerland
+Software Engineering
+Description
+About Flexion
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+Weâre looking for a talented and highly motivated robotics software engineer to join our team in ZÃ¼rich. In this role, you will work closely with our customers, AI engineering team, testing team and the rest of the company to drive successful deployments of our groundbreaking humanoid autonomy stack. You will have ownership of the integration, validation and deployment of our AI systems with novel, state-of-the-art humanoid hardware. At the same time, you will contribute to our core platforms and tooling for deployment and testing to enable scalable customer growth. This is a unique opportunity to join our world-class team of engineers and scientists and to build many aspects of our foundational software from the ground up.
+Requirements
+Required qualifications
+Degree in Computer Science, Electrical Engineering, Robotics, Mechanical Engineering, Software Engineering or equivalent practical experience
+Proficiency in C++ and experience with Python
+Experience in test automation (unit/integration/end-to-end)
+Familiarity with common debugging, profiling and Linux tools
+Familiarity with containerization tools (Docker)
+Basic knowledge of networking and communication protocols
+Familiarity with Git/GitHub, code reviews, and collaborative workflows
+Strong analytical thinking and problem-solving skills
+Additionally, the following skills are a plus:
+Experience with DevOps practices, CI/CD workflows and release management
+Experience with hardware-in-the-loop (HIL) and/or simulation-in-the-loop (SIL) testing
+Hands-on debugging on real hardware: sensor/actuator integration, logs/telemetry, root cause analysis
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+High ownership and autonomy in shaping Flexionâs customer experience
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Software Engineer - Robotics</t>
+  </si>
+  <si>
+    <t>Internship - Humanoid Motion Generation (Diffusion and Flow Matching) - My Framer Site
+AI Engineering
+Internship - Humanoid Motion Generation (Diffusion and Flow Matching)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world.
+You will work at the intersection of generative whole-body trajectory generation (using diffusion models, flow matching, and/or auto-regressive models) and 3D environment perception.
+If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Robotics, Machine Learning, or a related technical field.
+Experience in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Familiarity with generative modeling and its application to time series data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Preferably: autonomous research/project work in human motion generation (neural avatars) or robotic imitation learning.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - Humanoid Motion Generation (Diffusion and Flow Matching)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world.
+You will work at the intersection of generative whole-body trajectory generation (using diffusion models, flow matching, and/or auto-regressive models) and 3D environment perception.
+If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Robotics, Machine Learning, or a related technical field.
+Experience in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Familiarity with generative modeling and its application to time series data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Preferably: autonomous research/project work in human motion generation (neural avatars) or robotic imitation learning.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - Humanoid Motion Generation (Diffusion and Flow Matching)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world.
+You will work at the intersection of generative whole-body trajectory generation (using diffusion models, flow matching, and/or auto-regressive models) and 3D environment perception.
+If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Robotics, Machine Learning, or a related technical field.
+Experience in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Familiarity with generative modeling and its application to time series data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Preferably: autonomous research/project work in human motion generation (neural avatars) or robotic imitation learning.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - Humanoid Motion Generation (Diffusion and Flow Matching)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world.
+You will work at the intersection of generative whole-body trajectory generation (using diffusion models, flow matching, and/or auto-regressive models) and 3D environment perception.
+If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Robotics, Machine Learning, or a related technical field.
+Experience in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Familiarity with generative modeling and its application to time series data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Preferably: autonomous research/project work in human motion generation (neural avatars) or robotic imitation learning.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Internship - Humanoid Motion Generation (Diffusion and Flow Matching)</t>
+  </si>
+  <si>
+    <t>Internship - 3D Vision and Generative AI - My Framer Site
+AI Engineering
+Internship - 3D Vision and Generative AI
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world. You will work at the intersection of 3D scene reconstruction and generative modeling to help us build photorealistic, interactable 3D environments. This is a hands-on role where you might move quickly from research concepts to functional implementations, iterate on 3D representations, and experiment with generative models for spatial data. If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Machine Learning, or a related technical field.
+Experience with a range of 3D representations and reconstruction techniques, including traditional geometry (meshes, point clouds), radiance fields (e.g., NeRFs, 3DGS), and modern geometric foundation models.
+Familiarity with generative modeling and its application to 3D or spatial data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - 3D Vision and Generative AI
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world. You will work at the intersection of 3D scene reconstruction and generative modeling to help us build photorealistic, interactable 3D environments. This is a hands-on role where you might move quickly from research concepts to functional implementations, iterate on 3D representations, and experiment with generative models for spatial data. If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Machine Learning, or a related technical field.
+Experience with a range of 3D representations and reconstruction techniques, including traditional geometry (meshes, point clouds), radiance fields (e.g., NeRFs, 3DGS), and modern geometric foundation models.
+Familiarity with generative modeling and its application to 3D or spatial data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - 3D Vision and Generative AI
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world. You will work at the intersection of 3D scene reconstruction and generative modeling to help us build photorealistic, interactable 3D environments. This is a hands-on role where you might move quickly from research concepts to functional implementations, iterate on 3D representations, and experiment with generative models for spatial data. If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Machine Learning, or a related technical field.
+Experience with a range of 3D representations and reconstruction techniques, including traditional geometry (meshes, point clouds), radiance fields (e.g., NeRFs, 3DGS), and modern geometric foundation models.
+Familiarity with generative modeling and its application to 3D or spatial data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Internship - 3D Vision and Generative AI
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+Weâre looking for a talented MS or PhD intern to join our team in ZÃ¼rich and push the boundaries of how humanoid robots perceive and interact with the world. You will work at the intersection of 3D scene reconstruction and generative modeling to help us build photorealistic, interactable 3D environments. This is a hands-on role where you might move quickly from research concepts to functional implementations, iterate on 3D representations, and experiment with generative models for spatial data. If you enjoy solving open-ended problems in a fast-moving environment, this is a unique opportunity to learn from our world-class team of engineers and scientists, and contribute to our foundational software development.
+Requirements
+Required skills:
+Currently pursuing a Masterâs or PhD degree in Computer Science, Machine Learning, or a related technical field.
+Experience with a range of 3D representations and reconstruction techniques, including traditional geometry (meshes, point clouds), radiance fields (e.g., NeRFs, 3DGS), and modern geometric foundation models.
+Familiarity with generative modeling and its application to 3D or spatial data.
+Excellent Python and PyTorch skills; comfortable writing clean, modular code for rapid experimentation.
+Strong, proven analytical thinking and problem-solving skills.
+Ability to navigate and implement state-of-the-art methods from recent literature.
+Additionally, the following skills are a plus but not required:
+Experience in robotics.
+Experience with simulation environments.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Internship - 3D Vision and Generative AI</t>
+  </si>
+  <si>
+    <t>Research Engineer - State Estimation and Visual Odometry (ML+classic) - My Framer Site
+AI Engineering
+Research Engineer - State Estimation and Visual Odometry (ML+classic)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a computer vision and sensor fusion expert to strengthen our team in Zurich.
+The goal of this position is to develop next-generation robust, reliable state estimation solutions for humanoid robots, primarily using proprioceptive and visual sensors.
+Requirements
+We are looking for an expert in optimization-based and filtering-based state estimation and sensor fusion for robotic systems, ideally with a focus on visual odometry. Moreover, the person should have a strong understanding of modern machine learning methods, including sequence-to-sequence learning, autoregressive, and diffusion models. Good knowledge of recent end-to-end learned odometry and motion estimation solutions is beneficial.
+Particularly:
+PhD or master's degree in computer vision or robotics with relevant experience.
+Multi-year experience (either PhD or industry) in visual inertial odometry (VIO) and motion estimation.
+Excellent knowledge of efficient C++ programming and real-time deployment.
+Experience with Python, PyTorch, and the training of deep neural networks.
+Hands-on experience working with robotic systems and/or AR/VR devices.
+We are looking for a person who enjoys working in a team in a dynamic, fast-moving environment and is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - State Estimation and Visual Odometry (ML+classic)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a computer vision and sensor fusion expert to strengthen our team in Zurich.
+The goal of this position is to develop next-generation robust, reliable state estimation solutions for humanoid robots, primarily using proprioceptive and visual sensors.
+Requirements
+We are looking for an expert in optimization-based and filtering-based state estimation and sensor fusion for robotic systems, ideally with a focus on visual odometry. Moreover, the person should have a strong understanding of modern machine learning methods, including sequence-to-sequence learning, autoregressive, and diffusion models. Good knowledge of recent end-to-end learned odometry and motion estimation solutions is beneficial.
+Particularly:
+PhD or master's degree in computer vision or robotics with relevant experience.
+Multi-year experience (either PhD or industry) in visual inertial odometry (VIO) and motion estimation.
+Excellent knowledge of efficient C++ programming and real-time deployment.
+Experience with Python, PyTorch, and the training of deep neural networks.
+Hands-on experience working with robotic systems and/or AR/VR devices.
+We are looking for a person who enjoys working in a team in a dynamic, fast-moving environment and is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - State Estimation and Visual Odometry (ML+classic)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a computer vision and sensor fusion expert to strengthen our team in Zurich.
+The goal of this position is to develop next-generation robust, reliable state estimation solutions for humanoid robots, primarily using proprioceptive and visual sensors.
+Requirements
+We are looking for an expert in optimization-based and filtering-based state estimation and sensor fusion for robotic systems, ideally with a focus on visual odometry. Moreover, the person should have a strong understanding of modern machine learning methods, including sequence-to-sequence learning, autoregressive, and diffusion models. Good knowledge of recent end-to-end learned odometry and motion estimation solutions is beneficial.
+Particularly:
+PhD or master's degree in computer vision or robotics with relevant experience.
+Multi-year experience (either PhD or industry) in visual inertial odometry (VIO) and motion estimation.
+Excellent knowledge of efficient C++ programming and real-time deployment.
+Experience with Python, PyTorch, and the training of deep neural networks.
+Hands-on experience working with robotic systems and/or AR/VR devices.
+We are looking for a person who enjoys working in a team in a dynamic, fast-moving environment and is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - State Estimation and Visual Odometry (ML+classic)
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are looking for a computer vision and sensor fusion expert to strengthen our team in Zurich.
+The goal of this position is to develop next-generation robust, reliable state estimation solutions for humanoid robots, primarily using proprioceptive and visual sensors.
+Requirements
+We are looking for an expert in optimization-based and filtering-based state estimation and sensor fusion for robotic systems, ideally with a focus on visual odometry. Moreover, the person should have a strong understanding of modern machine learning methods, including sequence-to-sequence learning, autoregressive, and diffusion models. Good knowledge of recent end-to-end learned odometry and motion estimation solutions is beneficial.
+Particularly:
+PhD or master's degree in computer vision or robotics with relevant experience.
+Multi-year experience (either PhD or industry) in visual inertial odometry (VIO) and motion estimation.
+Excellent knowledge of efficient C++ programming and real-time deployment.
+Experience with Python, PyTorch, and the training of deep neural networks.
+Hands-on experience working with robotic systems and/or AR/VR devices.
+We are looking for a person who enjoys working in a team in a dynamic, fast-moving environment and is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Research Engineer - State Estimation and Visual Odometry (ML+classic)</t>
+  </si>
+  <si>
+    <t>Lead - Dexterous Manipulation - My Framer Site
+AI Engineering
+Lead - Dexterous Manipulation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are seeking a Manipulation Lead to define and drive Flexion's manipulation stack, with a strong focus on learning-based dexterous control for humanoid robots.
+In this role, you will own the technical direction, architecture, and delivery of manipulation capabilities, from research ideas to real-time execution on physical robots.
+You will work closely with the perception, controls, and infrastructure teams, and lead the engineers working on dexterous manipulation. This is a hands-on technical leadership role, not a purely managerial position.
+Responsibilities
+Own the full manipulation stack, from problem formulation and data collection to training, deployment, and evaluation on real robots.
+Define the technical roadmap for dexterous manipulation.
+Lead the transition from research prototypes to robust, real-time controllers running on humanoid hardware.
+Design, implement, and deploy learning-based manipulation controllers (e.g. diffusion-based policies, flow matching, RL, or hybrids).
+Establish best practices for training, sim-to-real transfer, evaluation metrics, and debugging on hardware.
+Mentor and guide the engineers working on manipulation.
+Collaborate closely with perception, whole-body control, and infrastructure teams to enable closed-loop manipulation.
+Requirements
+PhD degree in Robotics, Machine Learning, or a related field, with significant hands-on experience in learning-based manipulation.
+Deep expertise in dexterous manipulation models, such as:
+Diffusion models
+Flow matching
+Reinforcement learning
+Strong understanding of robot control and real-time constraints.
+Proven experience deploying learning-based controllers on real robotic hardware.
+Excellent proficiency in Python and PyTorch, including training large neural networks.
+Solid knowledge of transformers and modern generative models.
+Ability to take technical ownership and make high-impact decisions in a fast-moving environment.
+Key technical leadership role in a young, fast-growing robotics company in Zurich.
+Direct influence on the core manipulation capabilities of next-generation humanoid robots.
+High ownership and autonomy in shaping systems and research direction.
+Competitive compensation, including base salary and additional benefits.
+AI Engineering
+Lead - Dexterous Manipulation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are seeking a Manipulation Lead to define and drive Flexion's manipulation stack, with a strong focus on learning-based dexterous control for humanoid robots.
+In this role, you will own the technical direction, architecture, and delivery of manipulation capabilities, from research ideas to real-time execution on physical robots.
+You will work closely with the perception, controls, and infrastructure teams, and lead the engineers working on dexterous manipulation. This is a hands-on technical leadership role, not a purely managerial position.
+Responsibilities
+Own the full manipulation stack, from problem formulation and data collection to training, deployment, and evaluation on real robots.
+Define the technical roadmap for dexterous manipulation.
+Lead the transition from research prototypes to robust, real-time controllers running on humanoid hardware.
+Design, implement, and deploy learning-based manipulation controllers (e.g. diffusion-based policies, flow matching, RL, or hybrids).
+Establish best practices for training, sim-to-real transfer, evaluation metrics, and debugging on hardware.
+Mentor and guide the engineers working on manipulation.
+Collaborate closely with perception, whole-body control, and infrastructure teams to enable closed-loop manipulation.
+Requirements
+PhD degree in Robotics, Machine Learning, or a related field, with significant hands-on experience in learning-based manipulation.
+Deep expertise in dexterous manipulation models, such as:
+Diffusion models
+Flow matching
+Reinforcement learning
+Strong understanding of robot control and real-time constraints.
+Proven experience deploying learning-based controllers on real robotic hardware.
+Excellent proficiency in Python and PyTorch, including training large neural networks.
+Solid knowledge of transformers and modern generative models.
+Ability to take technical ownership and make high-impact decisions in a fast-moving environment.
+Key technical leadership role in a young, fast-growing robotics company in Zurich.
+Direct influence on the core manipulation capabilities of next-generation humanoid robots.
+High ownership and autonomy in shaping systems and research direction.
+Competitive compensation, including base salary and additional benefits.
+AI Engineering
+Lead - Dexterous Manipulation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are seeking a Manipulation Lead to define and drive Flexion's manipulation stack, with a strong focus on learning-based dexterous control for humanoid robots.
+In this role, you will own the technical direction, architecture, and delivery of manipulation capabilities, from research ideas to real-time execution on physical robots.
+You will work closely with the perception, controls, and infrastructure teams, and lead the engineers working on dexterous manipulation. This is a hands-on technical leadership role, not a purely managerial position.
+Responsibilities
+Own the full manipulation stack, from problem formulation and data collection to training, deployment, and evaluation on real robots.
+Define the technical roadmap for dexterous manipulation.
+Lead the transition from research prototypes to robust, real-time controllers running on humanoid hardware.
+Design, implement, and deploy learning-based manipulation controllers (e.g. diffusion-based policies, flow matching, RL, or hybrids).
+Establish best practices for training, sim-to-real transfer, evaluation metrics, and debugging on hardware.
+Mentor and guide the engineers working on manipulation.
+Collaborate closely with perception, whole-body control, and infrastructure teams to enable closed-loop manipulation.
+Requirements
+PhD degree in Robotics, Machine Learning, or a related field, with significant hands-on experience in learning-based manipulation.
+Deep expertise in dexterous manipulation models, such as:
+Diffusion models
+Flow matching
+Reinforcement learning
+Strong understanding of robot control and real-time constraints.
+Proven experience deploying learning-based controllers on real robotic hardware.
+Excellent proficiency in Python and PyTorch, including training large neural networks.
+Solid knowledge of transformers and modern generative models.
+Ability to take technical ownership and make high-impact decisions in a fast-moving environment.
+Key technical leadership role in a young, fast-growing robotics company in Zurich.
+Direct influence on the core manipulation capabilities of next-generation humanoid robots.
+High ownership and autonomy in shaping systems and research direction.
+Competitive compensation, including base salary and additional benefits.
+AI Engineering
+Lead - Dexterous Manipulation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich), and backed by leading international VC firms. In just months, weâve gone from our first line of code to deploying real humanoid capabilities.
+We are seeking a Manipulation Lead to define and drive Flexion's manipulation stack, with a strong focus on learning-based dexterous control for humanoid robots.
+In this role, you will own the technical direction, architecture, and delivery of manipulation capabilities, from research ideas to real-time execution on physical robots.
+You will work closely with the perception, controls, and infrastructure teams, and lead the engineers working on dexterous manipulation. This is a hands-on technical leadership role, not a purely managerial position.
+Responsibilities
+Own the full manipulation stack, from problem formulation and data collection to training, deployment, and evaluation on real robots.
+Define the technical roadmap for dexterous manipulation.
+Lead the transition from research prototypes to robust, real-time controllers running on humanoid hardware.
+Design, implement, and deploy learning-based manipulation controllers (e.g. diffusion-based policies, flow matching, RL, or hybrids).
+Establish best practices for training, sim-to-real transfer, evaluation metrics, and debugging on hardware.
+Mentor and guide the engineers working on manipulation.
+Collaborate closely with perception, whole-body control, and infrastructure teams to enable closed-loop manipulation.
+Requirements
+PhD degree in Robotics, Machine Learning, or a related field, with significant hands-on experience in learning-based manipulation.
+Deep expertise in dexterous manipulation models, such as:
+Diffusion models
+Flow matching
+Reinforcement learning
+Strong understanding of robot control and real-time constraints.
+Proven experience deploying learning-based controllers on real robotic hardware.
+Excellent proficiency in Python and PyTorch, including training large neural networks.
+Solid knowledge of transformers and modern generative models.
+Ability to take technical ownership and make high-impact decisions in a fast-moving environment.
+Key technical leadership role in a young, fast-growing robotics company in Zurich.
+Direct influence on the core manipulation capabilities of next-generation humanoid robots.
+High ownership and autonomy in shaping systems and research direction.
+Competitive compensation, including base salary and additional benefits.
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Lead - Dexterous Manipulation</t>
+  </si>
+  <si>
+    <t>Research Engineer - Generative Humanoid Motion Generation - My Framer Site
+AI Engineering
+Research Engineer - Generative Humanoid Motion Generation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an expert in whole-body motion generation to strengthen our Zurich team.
+Inspired by recent successes in neural avatars and computer graphics, we aim to apply similar principles to generate whole-body motions for our humanoid robots.
+The goal of this position is to develop and deploy state-of-the-art multimodal models for robot trajectory generation.
+Requirements
+Hands-on experience in the development and training of diffusion or flow matching models. Ideally, this includes either training robotic imitation policies or training models to generate whole-body motions for human avatars.
+Particularly:
+PhD or master's degree in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Strong research profile with a high track record of publications at top computer vision, graphics and/or robotic conferences, such as ICCV/ECCV, CVPR, SIGGRAPH, CORL, RSS, etc.
+Excellent knowledge of Python, PyTorch, and hands-on experience in the training and fine-tuning of diffusion models and/or flow matching policies.
+Experience in the deployment of learning-based trajectory generation for robotic systems.
+Experience with modern GPU-based simulations such as Omniverse or Genesis.
+Good knowledge of state-of-the-art machine learning architectures.
+We are looking for a person who enjoys working in a team in a very dynamic and fast-moving environment, and who is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - Generative Humanoid Motion Generation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an expert in whole-body motion generation to strengthen our Zurich team.
+Inspired by recent successes in neural avatars and computer graphics, we aim to apply similar principles to generate whole-body motions for our humanoid robots.
+The goal of this position is to develop and deploy state-of-the-art multimodal models for robot trajectory generation.
+Requirements
+Hands-on experience in the development and training of diffusion or flow matching models. Ideally, this includes either training robotic imitation policies or training models to generate whole-body motions for human avatars.
+Particularly:
+PhD or master's degree in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Strong research profile with a high track record of publications at top computer vision, graphics and/or robotic conferences, such as ICCV/ECCV, CVPR, SIGGRAPH, CORL, RSS, etc.
+Excellent knowledge of Python, PyTorch, and hands-on experience in the training and fine-tuning of diffusion models and/or flow matching policies.
+Experience in the deployment of learning-based trajectory generation for robotic systems.
+Experience with modern GPU-based simulations such as Omniverse or Genesis.
+Good knowledge of state-of-the-art machine learning architectures.
+We are looking for a person who enjoys working in a team in a very dynamic and fast-moving environment, and who is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - Generative Humanoid Motion Generation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an expert in whole-body motion generation to strengthen our Zurich team.
+Inspired by recent successes in neural avatars and computer graphics, we aim to apply similar principles to generate whole-body motions for our humanoid robots.
+The goal of this position is to develop and deploy state-of-the-art multimodal models for robot trajectory generation.
+Requirements
+Hands-on experience in the development and training of diffusion or flow matching models. Ideally, this includes either training robotic imitation policies or training models to generate whole-body motions for human avatars.
+Particularly:
+PhD or master's degree in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Strong research profile with a high track record of publications at top computer vision, graphics and/or robotic conferences, such as ICCV/ECCV, CVPR, SIGGRAPH, CORL, RSS, etc.
+Excellent knowledge of Python, PyTorch, and hands-on experience in the training and fine-tuning of diffusion models and/or flow matching policies.
+Experience in the deployment of learning-based trajectory generation for robotic systems.
+Experience with modern GPU-based simulations such as Omniverse or Genesis.
+Good knowledge of state-of-the-art machine learning architectures.
+We are looking for a person who enjoys working in a team in a very dynamic and fast-moving environment, and who is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+AI Engineering
+Research Engineer - Generative Humanoid Motion Generation
+Switzerland
+AI Engineering
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world deployment of humanoids. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months, weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an expert in whole-body motion generation to strengthen our Zurich team.
+Inspired by recent successes in neural avatars and computer graphics, we aim to apply similar principles to generate whole-body motions for our humanoid robots.
+The goal of this position is to develop and deploy state-of-the-art multimodal models for robot trajectory generation.
+Requirements
+Hands-on experience in the development and training of diffusion or flow matching models. Ideally, this includes either training robotic imitation policies or training models to generate whole-body motions for human avatars.
+Particularly:
+PhD or master's degree in diffusion models/flow matching or learning-based trajectory generation with relevant project experience.
+Strong research profile with a high track record of publications at top computer vision, graphics and/or robotic conferences, such as ICCV/ECCV, CVPR, SIGGRAPH, CORL, RSS, etc.
+Excellent knowledge of Python, PyTorch, and hands-on experience in the training and fine-tuning of diffusion models and/or flow matching policies.
+Experience in the deployment of learning-based trajectory generation for robotic systems.
+Experience with modern GPU-based simulations such as Omniverse or Genesis.
+Good knowledge of state-of-the-art machine learning architectures.
+We are looking for a person who enjoys working in a team in a very dynamic and fast-moving environment, and who is able and willing to take ownership of projects and decisions.
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Research Engineer - Generative Humanoid Motion Generation</t>
+  </si>
+  <si>
+    <t>Marketing Specialist - My Framer Site
+Marketing Specialist
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an ambitious Marketing Specialist for either an internship or a more senior position, depending on the motivation, skills, and mindset of the right candidate. You will join our operations team to support and execute commercial activities, ranging from inhouse content production to event organization, brand management, and coordination with our external marketing partners. The role also involves managing our inbound pipeline and executing outbound efforts as needed.
+The ideal candidate is a great team player with a start-up mentality, autonomy, and creativity. A background or strong personal interest in deep tech or robotics is a definite plus. Whether you are seeking an internship in marketing within robotics or have already begun a career in marketing and want to take the next step, we encourage you to apply.
+Key Responsibilities:
+Video Content Creation &amp; Distribution
+Externally-Facing Content Creation
+Campaign Execution &amp; Support
+Trade Shows &amp; Conferences Organization
+Social Media Management
+Brand Development and Management
+Business Development
+Requirements
+Experience in marketing, preferably within deep tech, AI, robotics
+Strong video content creation skills, including filming, editing, and post-production
+Familiarity with video editing tools (e.g., Adobe Premiere, Final Cut, or similar)
+Hands-on experience supporting and executing marketing campaigns
+Experience managing social media accounts for B2B or technology brands
+Excellent written and verbal communication skills in English
+Excellent teamwork skills
+Comfortable engaging with technical stakeholders to extract insights and stories
+Self-starter with a proactive, hands-on approach
+Curious about technology and motivated to learn complex subjects quickly
+Detail-oriented while able to work in a fast-paced, evolving environment
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+The opportunity to build marketing experience in the rapidly evolving field of robotics
+Marketing Specialist
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an ambitious Marketing Specialist for either an internship or a more senior position, depending on the motivation, skills, and mindset of the right candidate. You will join our operations team to support and execute commercial activities, ranging from inhouse content production to event organization, brand management, and coordination with our external marketing partners. The role also involves managing our inbound pipeline and executing outbound efforts as needed.
+The ideal candidate is a great team player with a start-up mentality, autonomy, and creativity. A background or strong personal interest in deep tech or robotics is a definite plus. Whether you are seeking an internship in marketing within robotics or have already begun a career in marketing and want to take the next step, we encourage you to apply.
+Key Responsibilities:
+Video Content Creation &amp; Distribution
+Externally-Facing Content Creation
+Campaign Execution &amp; Support
+Trade Shows &amp; Conferences Organization
+Social Media Management
+Brand Development and Management
+Business Development
+Requirements
+Experience in marketing, preferably within deep tech, AI, robotics
+Strong video content creation skills, including filming, editing, and post-production
+Familiarity with video editing tools (e.g., Adobe Premiere, Final Cut, or similar)
+Hands-on experience supporting and executing marketing campaigns
+Experience managing social media accounts for B2B or technology brands
+Excellent written and verbal communication skills in English
+Excellent teamwork skills
+Comfortable engaging with technical stakeholders to extract insights and stories
+Self-starter with a proactive, hands-on approach
+Curious about technology and motivated to learn complex subjects quickly
+Detail-oriented while able to work in a fast-paced, evolving environment
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+The opportunity to build marketing experience in the rapidly evolving field of robotics
+Marketing Specialist
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an ambitious Marketing Specialist for either an internship or a more senior position, depending on the motivation, skills, and mindset of the right candidate. You will join our operations team to support and execute commercial activities, ranging from inhouse content production to event organization, brand management, and coordination with our external marketing partners. The role also involves managing our inbound pipeline and executing outbound efforts as needed.
+The ideal candidate is a great team player with a start-up mentality, autonomy, and creativity. A background or strong personal interest in deep tech or robotics is a definite plus. Whether you are seeking an internship in marketing within robotics or have already begun a career in marketing and want to take the next step, we encourage you to apply.
+Key Responsibilities:
+Video Content Creation &amp; Distribution
+Externally-Facing Content Creation
+Campaign Execution &amp; Support
+Trade Shows &amp; Conferences Organization
+Social Media Management
+Brand Development and Management
+Business Development
+Requirements
+Experience in marketing, preferably within deep tech, AI, robotics
+Strong video content creation skills, including filming, editing, and post-production
+Familiarity with video editing tools (e.g., Adobe Premiere, Final Cut, or similar)
+Hands-on experience supporting and executing marketing campaigns
+Experience managing social media accounts for B2B or technology brands
+Excellent written and verbal communication skills in English
+Excellent teamwork skills
+Comfortable engaging with technical stakeholders to extract insights and stories
+Self-starter with a proactive, hands-on approach
+Curious about technology and motivated to learn complex subjects quickly
+Detail-oriented while able to work in a fast-paced, evolving environment
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+The opportunity to build marketing experience in the rapidly evolving field of robotics
+Marketing Specialist
+Switzerland
+Description
+About Flexion:
+At Flexion, we're building the intelligence layer powering the next generation of humanoid robots. Our mission is to accelerate the transition from fragile prototypes to real-world humanoid deployment. We are founded by leading scientists in robot reinforcement learning (ex-Nvidia, ex-ETH ZÃ¼rich) and backed by leading international VC firms. Within a few months weâve gone from our first line of code to deploying real humanoid capabilities with our partners.
+We are looking for an ambitious Marketing Specialist for either an internship or a more senior position, depending on the motivation, skills, and mindset of the right candidate. You will join our operations team to support and execute commercial activities, ranging from inhouse content production to event organization, brand management, and coordination with our external marketing partners. The role also involves managing our inbound pipeline and executing outbound efforts as needed.
+The ideal candidate is a great team player with a start-up mentality, autonomy, and creativity. A background or strong personal interest in deep tech or robotics is a definite plus. Whether you are seeking an internship in marketing within robotics or have already begun a career in marketing and want to take the next step, we encourage you to apply.
+Key Responsibilities:
+Video Content Creation &amp; Distribution
+Externally-Facing Content Creation
+Campaign Execution &amp; Support
+Trade Shows &amp; Conferences Organization
+Social Media Management
+Brand Development and Management
+Business Development
+Requirements
+Experience in marketing, preferably within deep tech, AI, robotics
+Strong video content creation skills, including filming, editing, and post-production
+Familiarity with video editing tools (e.g., Adobe Premiere, Final Cut, or similar)
+Hands-on experience supporting and executing marketing campaigns
+Experience managing social media accounts for B2B or technology brands
+Excellent written and verbal communication skills in English
+Excellent teamwork skills
+Comfortable engaging with technical stakeholders to extract insights and stories
+Self-starter with a proactive, hands-on approach
+Curious about technology and motivated to learn complex subjects quickly
+Detail-oriented while able to work in a fast-paced, evolving environment
+Competitive compensation
+A front-row seat at one of Europeâs most ambitious robotics companies
+An energetic, collaborative team with a bias for action
+The opportunity to build marketing experience in the rapidly evolving field of robotics
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG
+Shape the Future
+Whether you're interested in our product, partnerships, or joining our team, we'd love to hear from you
+Get in Touch
+X / Twitter
+X / Twitter
+Affolternstrasse 42
+8050 Zurich, Switzerland
+Privacy Policy
+Privacy Policy
+Â© 2025 Flexion Robotics AG</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +2797,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1673,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1716,16 +3147,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,16 +3164,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,16 +3181,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,16 +3198,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1784,16 +3215,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,16 +3232,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,16 +3249,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1835,16 +3266,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,16 +3283,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,10 +3357,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1943,10 +3374,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,10 +3391,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,10 +3442,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,10 +3459,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,10 +3476,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,10 +3493,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,10 +3510,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,10 +3527,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,10 +3544,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,10 +3561,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,10 +3612,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,10 +3629,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,10 +3646,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,10 +3663,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2249,10 +3680,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2283,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,10 +3731,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,94 +3748,184 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
@@ -2482,10 +4003,34 @@
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
     <row r="97" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
@@ -2521,34 +4066,10 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
+    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
@@ -2570,28 +4091,82 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2619,271 +4194,208 @@
     <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="210" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="211" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="212" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="213" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="214" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="215" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="216" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
     </row>
@@ -3207,48 +4719,87 @@
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
-      <c r="C376" s="6"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
     </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="5"/>
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="5"/>
+      <c r="B380" s="5"/>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="5"/>
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="5"/>
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="5"/>
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="5"/>
+      <c r="B384" s="5"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="5"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="5"/>
+      <c r="B386" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:E1048576">
+  <conditionalFormatting sqref="D1:E1 D11:E1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
+  <conditionalFormatting sqref="D2:E10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/Scrapify - Copy.xlsx
+++ b/main/Scrapify - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sicaja\Desktop\DB\DB-Bussiness\2019.01.01_SmartCodeACADEMY_Official\2026.31.01_GitHub_PRJ_Scrapify\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC320D-09E3-4EF0-8F0E-A350B6632DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF0ADDE-0F1A-4DE9-970C-0C5A0E2AC4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -2712,6 +2712,223 @@
   <si>
     <t>Marketing Specialist</t>
   </si>
+  <si>
+    <t>Mid / Senior SLAM Engineer
+Zurich
+Software Engineering /
+Full time /
+On-site
+Apply for this job
+Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots. Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of earthmoving machines in a gamified environment. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a trillion dollar industry through active deployments with market leaders.
+About the Job
+At Gravis, we engineer solutions at the nexus of hardware and software every day: bringing new perception and control technologies onto awesome, autonomous machines. Our Rooftop Autonomous Control Kit (Rack) combines sensors, compute, communication and networking modules toward a manufacturer-agnostic solution that can be applied to a variety of construction machines regardless of type and age. We are seeking a skilled SLAM Engineer for our perception team: you will help design, develop, test and deploy customized forms of state-of-the-art localization+mapping, state estimation and calibration algorithms—while ensuring production quality implementation and timely execution.
+Responsibilities
+Design, prototype, and deploy advanced real-time localization, mapping, and calibration systems for autonomous heavy machines, by means of lidar, inertial, visual and GPS data.
+Establish and optimize testing procedures and performance metrics to ensure robust system behavior.
+Collaborate closely with multidisciplinary experts to improve the reliability and performance of the entire system.
+Required Qualifications
+Master’s or PhD in Computer Science, Mechanical Engineering, Electrical Engineering or a related field.
+3+ years of experience in developing and implementing robust localization + mapping algorithms.
+Experience writing production-quality C++/Python code in a Linux development environment.
+Experience with building/refining SLAM frameworks using Lidar-Intertial-Visual data.
+Risk management skills with the ability to re-prioritize work packages and meet deadlines in a fast paced work environment.
+Excellent communication skills with the ability to effectively convey technical concepts to both technical and non-technical stakeholders.
+Additional Beneficial Skills
+Experience with RADAR and GPS/GNSS integration into SLAM systems.
+Experience with ROS2.
+Don't meet every requirement? If you're enthusiastic about the role but your experience doesn't match every qualification, we still encourage you to apply. You may still be the perfect fit for another position - tell us about how you could accomplish your best at Gravis with a cover letter.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that will revolutionize heavy construction. Gravis Robotics offers a fair market salary and a working location in the vibrant city of Zurich. As a forward-facing startup, we understand that work-life balance and flexibility are important considerations for many professionals: If you are a highly qualified candidate with the requisite skills and experience, we encourage you to apply and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.
+Apply for this job
+Gravis Robotics Home Page
+Jobs powered by</t>
+  </si>
+  <si>
+    <t>Mid / Senior SLAM Engineer</t>
+  </si>
+  <si>
+    <t>Gravis Robotics</t>
+  </si>
+  <si>
+    <t>17:35:45</t>
+  </si>
+  <si>
+    <t>Game Developer
+Zurich
+Software Engineering /
+Full time /
+On-site
+Apply for this job
+Gravis Robotics builds technology that turns heavy construction machines into intelligent and
+autonomous robots. Our unique combination of learning-based automation and augmented
+remote control lets one operator safely conduct a fleet of earthmoving machines with super-
+human productivity. Building upon over a decade of academic experience honing the cutting
+edge of large-scale robotics, we continue to innovate as we rapidly position ourselves in a trillion
+dollar industry through active deployments with market leaders.
+About the role
+We are seeking a Game Developer to join our team responsible for the interface used in
+gamifying the control and monitoring of autonomous heavy machines. You’ll work alongside
+game designers, UX/UI designers, C++ developers, and cloud/web engineers to build spatial
+user interfaces that are reliable, fast, and delightful to use. This is an exciting opportunity to
+apply your game development experience to real-world applications in autonomous systems
+while growing your skills in a collaborative, cross-disciplinary environment.
+Motivated junior engineers with C++ and game development experience are encouraged to
+apply.
+Responsibilities
+Maintain, optimize, and extend existing features and components in C++ and visual scripting workflows
+Collaborate with other game developers to implement end-to-end features across front-end and back-end
+Create compelling human-machine interfaces, simulations and digital twins of the real world
+Build, maintain, and improve unit tests and validation pipelines
+Work closely with UX/UI designers and game designers ensuring fidelity to design intent, smooth interactivity, and excellent performance
+Participate in technical discussions and architecture decisions within the team
+Partner closely with robotics and field application teams
+Required Qualifications
+Master's or Bachelor's degree in Computer Science or related field
+Completed coursework or projects in computer graphics, game development, or related areas
+Experience writing production-quality C++ code
+3+ years of professional experience developing games and in-game HUDs and/or GUIs
+Comfortable with game engine paradigms such as rendering, materials/shaders, scene management, and actors/components
+Proficient with Git
+Collaborative mindset with excellent communication skills
+Fluent in English
+Bonus
+Experience with Linux and Android app development
+Experience in performance optimization for real-time engine environments (CPU/GPU, shading, memory)
+Experience with networking, remote simulation, multiplayer or distributed simulation systems
+Familiarity with CAD design tools
+Don't meet every requirement? If you're enthusiastic about the role but your experience doesn't
+match every qualification, we still encourage you to apply. You may still be the perfect fit for
+another position - tell us about how you could accomplish your best at Gravis with a cover letter.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup
+that will revolutionize heavy construction. Gravis Robotics offers a fair market salary and a
+working location in the vibrant city of Zurich. As a forward-facing startup, we understand that
+work-life balance and flexibility are important considerations for many professionals: If you are a
+highly qualified candidate with the requisite skills and experience, we encourage you to apply
+and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse
+team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex,
+sexual orientation, age, gender identity, gender expression, disability, veteran status, or other
+legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.
+Apply for this job
+Gravis Robotics Home Page
+Jobs powered by</t>
+  </si>
+  <si>
+    <t>Game Developer</t>
+  </si>
+  <si>
+    <t>Robotics Software Engineer Internship - Autonomy
+Zurich
+Internship /
+Internship /
+On-site
+Apply for this job
+Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots.  Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of machines—from anywhere in the world. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a multi-billion dollar industry.
+About the Job
+We are looking for passionate, skilled interns to join our team—and to actively contribute to the development and deployment of extraordinary construction robots. The ideal candidate should be self-motivated, capable of working autonomously and in small teams, and should have a strong desire to solve exciting, challenging, and applied problems.
+At Gravis, we engineer solutions at the nexus of hardware and software every day.  Your role would likely explore one or more of the following areas (based on experience and interest):
+Focus Areas
+AI-based control systems for heavy machinery
+Environment perception and navigation planning
+Machine controller
+Behavior development
+Requirements
+Currently pursuing a degree at a Swiss university
+Beneficial Experience (Role Based)
+Master’s level study (i.e. in robotics, computer science, mechanical or electrical engineering, design)
+Experience conducting research (e.g., through experience in an academic lab, or through previous internships and employment)
+Track record of setting up and deploying software on autonomous systems
+Experience with C++ and Python
+Proficiency with Linux and GIT
+Interest and/or experience in heavy construction
+Experience with Robot Operating System (ROS) is a plus
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that iswill revolutionizinge heavy construction. You will get the chance to apply your skills to critical tasks, while learning from a team of world-class robotic engineers. Gravis Robotics offers a fair market salary and an excellent working location in the city of Zurich.
+We encourage applicants to include a selection of projects they have worked on, focusing on highlighting the programming languages used and individual contributions. If possible, please provide links to relevant repositories (e.g., GitHub), and any additional supporting material.
+Gravis is an equal opportunity employer. We are committed to inclusion and diversity, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.  All qualified people are highly encouraged to apply.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.
+Apply for this job
+Gravis Robotics Home Page
+Jobs powered by</t>
+  </si>
+  <si>
+    <t>Robotics Software Engineer Internship - Autonomy</t>
+  </si>
+  <si>
+    <t>Standortleiter und Autonomie-Tester / Site Manager and Autonomy Tester
+Bremgarten (AG)
+General /
+Part or Full Time /
+On-site
+Apply for this job
+========= English Version Below =========
+Gravis Robotics ist ein Startup, das Baumaschinen in intelligente und autonome Roboter verwandelt. Unsere einzigartige Kombination aus maschinell gelernter Automatisierung und erweiterten Fernsteuerungssystemen ermöglicht es einer Bedienperson, gleichzeitig eine Flotte von Erdbewegungsmaschinen in einer spielerisch gestalteten Bedienumgebung sicher zu steuern. Unser Team verfügt über mehr als ein Jahrzehnt akademischer Erfahrung an der Spitze der großskaligen Robotik und wächst schnell, um dieses Know-how in eine Billionen-Dollar-Industrie zu bringen – durch aktive Einsätze mit Marktführern.
+Über die Stelle
+Bei Gravis entwickeln wir täglich Lösungen an der Schnittstelle von Hardware und Software: Wir bringen neue Wahrnehmungs- und Steuerungstechnologien auf leistungsstarke, autonome Maschinen. Unser Rooftop Autonomous Control Kit (Rack) kombiniert Sensorik, Recheneinheiten, Kommunikation und Netzwerkmodule und ermöglicht damit eine herstellerunabhängige Lösung, die auf unterschiedlichste Baumaschinen verschiedener Typen und Baujahre anwendbar ist.
+Als Site Manager &amp; Autonomy Tester unterstützen Sie den Aufbau und die Instandhaltung unserer realen Testumgebung für autonome Baumaschinen und wirken direkt bei Feldtests mit robotischen Baggern mit. Sie arbeiten täglich auf unserem Testgelände, spielen eine Schlüsselrolle bei der Validierung neuer Funktionen für unsere Engineering-Teams und gehören zu den ersten Personen, die neue Features testen und mit Ihrem Branchenwissen aktiv Feedback einbringen.
+Ihre Aufgaben
+Organisation und Betreuung unseres Outdoor-Testgeländes und Sicherstellung von Sicherheit, Ordnung und Betriebsbereitschaft.
+Durchführung täglicher Feldtests an autonomen Baggern.
+Bereitstellung von wertvollem, umsetzbarem Feedback an das Entwicklungsteam zur Sicherstellung eines schnellen und effizienten F&amp;E-Testzyklus.
+Bedienung von Baumaschinen (Schulung wird bereitgestellt).
+Durchführung einfacher, routinemässiger Wartungsarbeiten an Testsystemen und Maschinen (Schulung wird bereitgestellt).
+Qualifikationen &amp; Fähigkeiten
+Fähigkeit, selbstständig in dynamischen Outdoor-Testumgebungen zu arbeiten.
+„Hands-on“-Mentalität – Sie packen an und scheuen sich nicht vor anspruchsvollen oder schmutzigen Aufgaben.
+Proaktive Arbeitsweise mit dem Blick für Verbesserungspotenziale über mehrere Testteams hinweg.
+Hohe Sorgfalt, Genauigkeit und ausgeprägtes Sicherheits- und Qualitätsbewusstsein.
+Gute Deutschkenntnisse zur Arbeitskommunikation (mündlich und schriftlich).
+Gute Englischkenntnisse zur Arbeitskommunikation (mündlich und schriftlich).
+Führerausweis Kategorie B.
+Vorteilhaft
+Eigenes Fahrzeug, um den Teststandort in Bremgarten (Kanton Aargau) zu erreichen.
+Erfahrung im Bedienen oder Arbeiten mit Bau- oder Landmaschinen.
+Führerausweis der Kategorie C.
+Praktische Erfahrung in der Reparatur von Autos, Maschinen, Fahrrädern oder Elektronik.
+Praktische Erfahrung mit unbemannten Systemen, Robotik oder Tests im Bereich Autonomie.
+Wenn du für diese Rolle brennst, deine Erfahrung jedoch nicht jeder Qualifikation entspricht, ermutigen wir dich trotzdem, dich zu bewerben. Vielleicht bist du genau die richtige Person für diese oder andere Positionen.
+Dies ist eine Gelegenheit, einem dynamischen und vielseitigen Team beizutreten und Teil eines jungen Start-ups zu werden, das den Schwerbau revolutionieren wird. Gravis Robotics bietet ein marktgerechtes Gehalt sowie einen Arbeitsort in der lebendigen Stadt Zürich. Als zukunftsorientiertes Start-up verstehen wir, dass Work-Life-Balance und Flexibilität für viele Fachkräfte wichtige Faktoren sind: Wenn du hochqualifiziert bist und die erforderlichen Fähigkeiten und Erfahrungen mitbringst, freuen wir uns auf deine Bewerbung und darauf, deine bevorzugte Arbeitsform im Bewerbungsgespräch zu besprechen.
+Gravis ist ein Arbeitgeber der Chancengleichheit. Wir setzen uns für den Aufbau eines inklusiven und vielfältigen Teams ein und diskriminieren niemanden aufgrund von Rasse, Hautfarbe, Herkunft, Nationalität, Religion, Geschlecht, sexueller Orientierung, Alter, Geschlechtsidentität, Geschlechtsausdruck, Behinderung, Veteranenstatus oder anderen gesetzlich geschützten Merkmalen.
+Wir sind ein internationales Team, das an Lösungen mit globaler Wirkung arbeitet: Um eine effiziente Kommunikation und Zusammenarbeit sicherzustellen, ist Englischkenntnis für alle Positionen Voraussetzung.
+========= English Version =========
+Gravis Robotics is a startup that turns heavy construction machines into intelligent and autonomous robots. Our unique combination of learning-based automation and augmented remote control lets one operator safely conduct a fleet of earthmoving machines in a gamified environment. Our team has over a decade of academic experience honing the cutting edge of large-scale robotics, and is rapidly growing to bring that expertise into a trillion dollar industry through active deployments with market leaders.
+About the Job
+At Gravis, we engineer solutions at the nexus of hardware and software every day: bringing new perception and control technologies onto awesome, autonomous machines. Our Rooftop Autonomous Control Kit (Rack) combines sensors, compute, communication and networking modules toward a manufacturer-agnostic solution that can be applied to a variety of construction machines regardless of type and age. As a Site Manager &amp; Autonomy Tester, you will help build and maintain our real-world testing environment for autonomous heavy machinery while directly supporting field testing on robotic excavators. You will be working daily at our testing facility and will play a key role in enabling our engineering teams to validate new capabilities, and you’ll be among the first to evaluate emerging features as they are developed and provide valuable feedback incorporating your industry knowledge.
+Your Responsibilities
+- Organize and manage our outdoor testing site, ensuring it remains safe, organized, and fully operational.
+- Execute daily field tests on multiple autonomous robotic excavators.
+- Provide valuable and actionable feedback to the development team to maintain a fast and efficient R&amp;D testing cycle.
+- Operate heavy machinery to restore terrain after testing (training provided).
+- Perform routine maintenance on testing equipment and machinery (training provided).
+Qualifications and Skills
+- Ability to work independently in dynamic, outdoor testing environments.
+- A roll-up-your-sleeves, get-it-done person who isn’t afraid of tough or gritty jobs
+- Proactive mindset to propose new solutions and improvements to support smooth operations across multiple testing teams
+- Strong attention to detail and commitment to safety and quality.
+- Good command of German for workplace communication (spoken and written).
+- Good command of English for workplace communication (spoken and written)
+- Driver’s license B category.
+Beneficial
+- Independent transport means to reach testing site (Bremgarten, Kanton Aargau)
+- Experience operating or working with construction or agricultural machinery.
+- Driver’s license C category.
+- Hands-on experience with repairs of cars, machinery, bikes or electronics.
+- Hands-on experience with unmanned systems, robotics, or autonomy testing.
+Don't meet every requirement? If you're enthusiastic about this role but your experience doesn't match every qualification, we still encourage you to apply. You might be the perfect candidate for this or other positions.
+This is an opportunity to join a dynamic and versatile team, and to be part of a young startup that will revolutionize heavy construction.  Gravis Robotics offers a fair market salary and a working location in the vibrant city of Zurich. As a forward-facing startup, we understand that work-life balance and flexibility are important considerations for many professionals: If you are a highly qualified candidate with the requisite skills and experience, we encourage you to apply and discuss your preferred working arrangement during the interview process.
+Gravis is an equal opportunity employer. We are committed to building an inclusive and diverse team, and do not discriminate based upon race, color, ancestry, national origin, religion, sex, sexual orientation, age, gender identity, gender expression, disability, veteran status, or other legally protected characteristics.
+We are an international team that is working to solve problems with a global impact: to facilitate efficient communication and collaboration, proficiency in English is a requirement for all roles.
+We may use artificial intelligence (AI) tools to support parts of the hiring process, such as reviewing applications, analyzing resumes, or assessing responses. These tools assist our recruitment team but do not replace human judgment. Final hiring decisions are ultimately made by humans. If you would like more information about how your data is processed, please contact us.
+Apply for this job
+Gravis Robotics Home Page
+Jobs powered by</t>
+  </si>
+  <si>
+    <t>Standortleiter und Autonomie-Tester / Site Manager and Autonomy Tester</t>
+  </si>
 </sst>
 </file>
 
@@ -2772,7 +2989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2791,6 +3008,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3104,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3143,71 +3363,71 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>96</v>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
+      <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>92</v>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
+      <c r="B5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3221,10 +3441,10 @@
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3238,10 +3458,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,10 +3475,10 @@
         <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,10 +3492,10 @@
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,10 +3509,10 @@
         <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,16 +3520,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3317,16 +3537,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3334,16 +3554,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,16 +3571,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,10 +3594,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,10 +3611,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3408,10 +3628,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3425,10 +3645,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,10 +3662,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,10 +3679,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3476,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3493,10 +3713,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,10 +3730,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,10 +3747,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,10 +3781,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,10 +3798,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,10 +3832,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,10 +3849,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,10 +3866,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,10 +3917,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3714,10 +3934,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,10 +3951,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3748,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,10 +3985,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,10 +4019,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3816,10 +4036,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,10 +4070,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,10 +4104,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,18 +4121,82 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3926,34 +4210,10 @@
     <row r="79" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
+    <row r="82" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
@@ -4066,38 +4326,38 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
+    <row r="102" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
@@ -4154,17 +4414,41 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+    </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4203,85 +4487,63 @@
     <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="210" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="211" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="212" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="213" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="214" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="215" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="216" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-    </row>
+    <row r="217" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="218" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="219" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="220" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
@@ -4306,26 +4568,50 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
     </row>
     <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="265" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4336,34 +4622,6 @@
     <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="271" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-    </row>
     <row r="281" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
@@ -4371,21 +4629,33 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
-      <c r="B283" s="5"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
+    <row r="282" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
@@ -4786,20 +5056,36 @@
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
-      <c r="C385" s="6"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
     </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="5"/>
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="5"/>
+      <c r="B388" s="5"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="5"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="5"/>
+      <c r="B390" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:E1 D11:E1048576">
+  <conditionalFormatting sqref="D15:E1048576 D1:E1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E10">
+  <conditionalFormatting sqref="D6:E14">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
